--- a/TestData/FindingHospitals.xlsx
+++ b/TestData/FindingHospitals.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="254">
   <si>
     <t>Pune</t>
   </si>
@@ -714,6 +714,436 @@
   </si>
   <si>
     <t>zXbIk198@gmail.com</t>
+  </si>
+  <si>
+    <t>EZBVV</t>
+  </si>
+  <si>
+    <t>PQKMT</t>
+  </si>
+  <si>
+    <t>8015081901</t>
+  </si>
+  <si>
+    <t>MsIvo468@.com</t>
+  </si>
+  <si>
+    <t>KqUxz015@gmail.com</t>
+  </si>
+  <si>
+    <t>Dr. K.Sulekha
+ Homoeopath
+34 years experience overall
+Marathahalli,Bangalore  Homeo Central
+₹400 Consultation fee at clinic
+100% 20 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Ankita Patel
+ Homoeopath
+13 years experience overall
+BTM Layout 2nd Stage,Bangalore  Maruthi Homoeo Hall
+₹350 Consultation fee at clinic
+100% 22 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Rishabh Vyas
+ Homoeopath
+9 years experience overall
+HSR Layout,Bangalore  Healvibe Healthcare + 1 more
+₹399 Consultation fee at clinic
+99% 285 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Divya Pai
+ Homoeopath
+14 years experience overall
+Kodigehalli,Bangalore  Kriya Homeopathy Clinic
+₹400 Consultation fee at clinic
+100% 25 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Sangeetha S
+ Homoeopath
+13 years experience overall
+Bannerghatta Road,Bangalore  Raghav's Multispecility Homeopathy Clinic + 1 more
+₹450 Consultation fee at clinic
+96% 24 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Rahul Shah
+Ear-Nose-Throat (ENT) Specialist
+21 years experience overall
+Majura Gate,Surat  Auora Ent Hospital &amp; Dental Clinic + 1 more
+₹500 Consultation fee at clinic
+95% 656 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Vijendra Kumar
+Dermatologist
+11 years experience overall
+Vidhyadhar Nagar,Jaipur  Manipal Hospitals
+₹500 Consultation fee at clinic</t>
+  </si>
+  <si>
+    <t>Dr. Kavita Choudhary
+Dermatologist
+4 years experience overall
+Bani Park,Jaipur  Dr. Kavita's Skincure Clinic
+₹300 Consultation fee at clinic</t>
+  </si>
+  <si>
+    <t>Dr. Swati Mogra
+Dermatologist
+16 years experience overall
+Vaishali Nagar,Jaipur  Signature Skin Clinic
+₹500 Consultation fee at clinic
+100% 617 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Prateek Manjul
+Dermatologist
+20 years experience overall
+Mansarovar,Jaipur  Divinity Total Skin Care
+₹500 Consultation fee at clinic
+95% 93 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Shantanu Choudhary
+Dermatologist
+16 years experience overall
+Vaishali Nagar,Jaipur  Signature Skin Clinic
+₹500 Consultation fee at clinic
+98% 409 Patient Stories</t>
+  </si>
+  <si>
+    <t>MOOJP</t>
+  </si>
+  <si>
+    <t>TBDBP</t>
+  </si>
+  <si>
+    <t>9312942639</t>
+  </si>
+  <si>
+    <t>IoQWz648@.com</t>
+  </si>
+  <si>
+    <t>qtWyN148@gmail.com</t>
+  </si>
+  <si>
+    <t>Dr. Lakshmi Durga M
+Dermatologist
+19 years experience overall
+Anna Nagar,Chennai  Oliva Skin &amp; Hair Clinic + 1 more
+₹700 Consultation fee at clinic
+99% 136 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Lakshmi M
+Dermatologist
+20 years experience overall
+Anna Nagar,Chennai  Oliva Skin &amp; Hair Clinic + 1 more
+₹700 Consultation fee at clinic
+98% 128 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Hari Priya A
+Dermatologist
+8 years experience overall
+Anna Nagar,Chennai  Oliva Skin &amp; Hair Clinic + 1 more
+₹700 Consultation fee at clinic
+100% 105 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Harshitha Munamala
+Dermatologist
+8 years experience overall
+Anna Nagar,Chennai  Oliva Skin &amp; Hair Clinic
+₹700 Consultation fee at clinic
+100% 14 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Aftab Mateen
+Dermatologist
+33 years experience overall
+Anna Nagar,Chennai  Apollo Medical Center
+₹800 Consultation fee at clinic
+88% 7 Patient Stories</t>
+  </si>
+  <si>
+    <t>TPRXS</t>
+  </si>
+  <si>
+    <t>RHUBJ</t>
+  </si>
+  <si>
+    <t>7402362175</t>
+  </si>
+  <si>
+    <t>lWTCI935@.com</t>
+  </si>
+  <si>
+    <t>EDTeD047@gmail.com</t>
+  </si>
+  <si>
+    <t>Dr. Rishav Bansal
+General Physician
+11 years experience overall
+C Scheme,Jaipur  Bansal Health Clinic
+₹500 Consultation fee at clinic
+100% 78 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Sunny Singhal
+General Physician
+10 years experience overall
+Durgapura,Jaipur  Singhal Clinic
+₹300 Consultation fee at clinic
+100% 37 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Viniita Jhuntrraa
+General Physician
+37 years experience overall
+Vaishali Nagar,Jaipur  Vivan Hospital for Sexual Health
+₹1000 Consultation fee at clinic
+91% 19 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Peeyush Bhargava
+General Physician
+25 years experience overall
+Malviya Nagar,Jaipur  Girdhar Hospital and Research Centre
+₹500 Consultation fee at clinic
+100% 2 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Rekha Jain
+General Physician
+36 years experience overall
+Mansarovar,Jaipur  Mansarovar Hospital
+₹800 Consultation fee at clinic
+95% 60 Patient Stories</t>
+  </si>
+  <si>
+    <t>TZCUP</t>
+  </si>
+  <si>
+    <t>TVMCH</t>
+  </si>
+  <si>
+    <t>7691656917</t>
+  </si>
+  <si>
+    <t>ktjxw326@.com</t>
+  </si>
+  <si>
+    <t>EUjhQ569@gmail.com</t>
+  </si>
+  <si>
+    <t>Dr. Chiranjit Bhowink</t>
+  </si>
+  <si>
+    <t>Dr. Amit Khattri</t>
+  </si>
+  <si>
+    <t>Dr. D Jayashree</t>
+  </si>
+  <si>
+    <t>Dr. Amitava Roy</t>
+  </si>
+  <si>
+    <t>Dr. K.D. Biswas</t>
+  </si>
+  <si>
+    <t>Dr. Ratnadeep Ghosh</t>
+  </si>
+  <si>
+    <t>Dr. Sunil Jalan</t>
+  </si>
+  <si>
+    <t>Dr. Sayan Ganguly</t>
+  </si>
+  <si>
+    <t>WQHYE</t>
+  </si>
+  <si>
+    <t>SFDET</t>
+  </si>
+  <si>
+    <t>7664553371</t>
+  </si>
+  <si>
+    <t>KRwKM901@.com</t>
+  </si>
+  <si>
+    <t>HlnyN865@gmail.com</t>
+  </si>
+  <si>
+    <t>Dr. Praveen Kumar</t>
+  </si>
+  <si>
+    <t>Dr. Ridhima Yadava</t>
+  </si>
+  <si>
+    <t>Dr. Monica Chahar</t>
+  </si>
+  <si>
+    <t>Dr. Nipun Jain</t>
+  </si>
+  <si>
+    <t>Dr. Abhishek Sharma</t>
+  </si>
+  <si>
+    <t>BIVNJ</t>
+  </si>
+  <si>
+    <t>ELXKR</t>
+  </si>
+  <si>
+    <t>7971074869</t>
+  </si>
+  <si>
+    <t>OYeDF271@.com</t>
+  </si>
+  <si>
+    <t>ZPJPw099@gmail.com</t>
+  </si>
+  <si>
+    <t>Dr. Sangeeta Chokhani</t>
+  </si>
+  <si>
+    <t>Dr. Kavita Agarwal</t>
+  </si>
+  <si>
+    <t>Dr. Akshay Jain</t>
+  </si>
+  <si>
+    <t>Dr. Anshudeep Dodake</t>
+  </si>
+  <si>
+    <t>Dr. Irfan Mamawala</t>
+  </si>
+  <si>
+    <t>YIXBZ</t>
+  </si>
+  <si>
+    <t>IBRXS</t>
+  </si>
+  <si>
+    <t>9375640959</t>
+  </si>
+  <si>
+    <t>tHZqs880@.com</t>
+  </si>
+  <si>
+    <t>jJKYD543@gmail.com</t>
+  </si>
+  <si>
+    <t>Dr. Bhagyalakshmi V</t>
+  </si>
+  <si>
+    <t>Dr. Sangeetha S</t>
+  </si>
+  <si>
+    <t>Dr. Samana Nadig S</t>
+  </si>
+  <si>
+    <t>Dr. Amarjeeth Chillergikar</t>
+  </si>
+  <si>
+    <t>Dr. Shubham Tiwary</t>
+  </si>
+  <si>
+    <t>HOAUU</t>
+  </si>
+  <si>
+    <t>PSSBM</t>
+  </si>
+  <si>
+    <t>6556107509</t>
+  </si>
+  <si>
+    <t>NcfaO197@.com</t>
+  </si>
+  <si>
+    <t>viyDm779@gmail.com</t>
+  </si>
+  <si>
+    <t>Dr. Rajshree Pokharna</t>
+  </si>
+  <si>
+    <t>Dr. Shalini Chaudhari</t>
+  </si>
+  <si>
+    <t>Dr. Rita Shah</t>
+  </si>
+  <si>
+    <t>Dr. Hrishikesh Bhujbal</t>
+  </si>
+  <si>
+    <t>Dr. Hetal Vyas</t>
+  </si>
+  <si>
+    <t>GUUHO</t>
+  </si>
+  <si>
+    <t>LBYTN</t>
+  </si>
+  <si>
+    <t>9378480705</t>
+  </si>
+  <si>
+    <t>ZEgWl685@.com</t>
+  </si>
+  <si>
+    <t>YdhAA532@gmail.com</t>
+  </si>
+  <si>
+    <t>HECJA</t>
+  </si>
+  <si>
+    <t>AFAOL</t>
+  </si>
+  <si>
+    <t>9522536053</t>
+  </si>
+  <si>
+    <t>VRHHN130@.com</t>
+  </si>
+  <si>
+    <t>fVknz787@gmail.com</t>
+  </si>
+  <si>
+    <t>Dr. Lakshmi Durga M</t>
+  </si>
+  <si>
+    <t>Dr. Lakshmi M</t>
+  </si>
+  <si>
+    <t>Dr. Hari Priya A</t>
+  </si>
+  <si>
+    <t>Dr. Harshitha Munamala</t>
+  </si>
+  <si>
+    <t>Dr. K Uma Maheswari</t>
+  </si>
+  <si>
+    <t>WZTJQ</t>
+  </si>
+  <si>
+    <t>ZXAPE</t>
+  </si>
+  <si>
+    <t>7845534940</t>
+  </si>
+  <si>
+    <t>YZoNc103@.com</t>
+  </si>
+  <si>
+    <t>Hrujz051@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1077,28 +1507,28 @@
         <v>2</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s" s="0">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s" s="0">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s" s="0">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I1" t="s" s="0">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J1" t="s" s="0">
         <v>48</v>
@@ -1109,42 +1539,45 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>1</v>
+        <v>244</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>137</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>21</v>
+        <v>249</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>141</v>
+        <v>251</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>142</v>
+        <v>252</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>143</v>
+        <v>253</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>144</v>
+        <v>208</v>
       </c>
       <c r="K2" t="s" s="0">
         <v>72</v>
       </c>
     </row>
     <row r="3">
+      <c r="C3" t="s" s="0">
+        <v>245</v>
+      </c>
       <c r="D3" t="s" s="0">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>22</v>
@@ -1154,8 +1587,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="C4" t="s" s="0">
+        <v>246</v>
+      </c>
       <c r="D4" t="s" s="0">
-        <v>139</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>23</v>
@@ -1165,8 +1601,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="C5" t="s" s="0">
+        <v>247</v>
+      </c>
       <c r="D5" t="s" s="0">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>24</v>
@@ -1176,8 +1615,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="C6" t="s" s="0">
+        <v>248</v>
+      </c>
       <c r="D6" t="s" s="0">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s" s="0">
         <v>25</v>
@@ -1188,7 +1630,7 @@
     </row>
     <row r="7">
       <c r="D7" t="s" s="0">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s" s="0">
         <v>26</v>
@@ -1199,7 +1641,7 @@
     </row>
     <row r="8">
       <c r="D8" t="s" s="0">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s" s="0">
         <v>27</v>
@@ -1210,7 +1652,7 @@
     </row>
     <row r="9">
       <c r="D9" t="s" s="0">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s" s="0">
         <v>28</v>
@@ -1221,7 +1663,7 @@
     </row>
     <row r="10">
       <c r="D10" t="s" s="0">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s" s="0">
         <v>29</v>
@@ -1232,7 +1674,7 @@
     </row>
     <row r="11">
       <c r="D11" t="s" s="0">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s" s="0">
         <v>30</v>
@@ -1242,6 +1684,9 @@
       </c>
     </row>
     <row r="12">
+      <c r="D12" t="s" s="0">
+        <v>31</v>
+      </c>
       <c r="E12" t="s" s="0">
         <v>31</v>
       </c>
@@ -1250,6 +1695,9 @@
       </c>
     </row>
     <row r="13">
+      <c r="D13" t="s" s="0">
+        <v>32</v>
+      </c>
       <c r="E13" t="s" s="0">
         <v>32</v>
       </c>
@@ -1258,6 +1706,9 @@
       </c>
     </row>
     <row r="14">
+      <c r="D14" t="s" s="0">
+        <v>33</v>
+      </c>
       <c r="E14" t="s" s="0">
         <v>33</v>
       </c>
@@ -1266,6 +1717,9 @@
       </c>
     </row>
     <row r="15">
+      <c r="D15" t="s" s="0">
+        <v>34</v>
+      </c>
       <c r="E15" t="s" s="0">
         <v>34</v>
       </c>
@@ -1274,6 +1728,9 @@
       </c>
     </row>
     <row r="16">
+      <c r="D16" t="s" s="0">
+        <v>35</v>
+      </c>
       <c r="E16" t="s" s="0">
         <v>35</v>
       </c>
@@ -1282,6 +1739,9 @@
       </c>
     </row>
     <row r="17">
+      <c r="D17" t="s" s="0">
+        <v>36</v>
+      </c>
       <c r="E17" t="s" s="0">
         <v>36</v>
       </c>
@@ -1290,6 +1750,9 @@
       </c>
     </row>
     <row r="18">
+      <c r="D18" t="s" s="0">
+        <v>37</v>
+      </c>
       <c r="E18" t="s" s="0">
         <v>37</v>
       </c>
@@ -1298,6 +1761,9 @@
       </c>
     </row>
     <row r="19">
+      <c r="D19" t="s" s="0">
+        <v>38</v>
+      </c>
       <c r="E19" t="s" s="0">
         <v>38</v>
       </c>
@@ -1306,6 +1772,9 @@
       </c>
     </row>
     <row r="20">
+      <c r="D20" t="s" s="0">
+        <v>39</v>
+      </c>
       <c r="E20" t="s" s="0">
         <v>39</v>
       </c>
